--- a/Tutorials_WorkList.xlsx
+++ b/Tutorials_WorkList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\MH_Dashboard_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF3C33F-5965-4AA7-83EF-B47B35FC4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FA539-F2B1-4C1A-8CF7-A8F1ACA118C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="885" windowWidth="19755" windowHeight="14175" xr2:uid="{90FDB673-6642-48E0-BF95-5FDB8501B1BA}"/>
+    <workbookView xWindow="2340" yWindow="1095" windowWidth="20625" windowHeight="14505" xr2:uid="{90FDB673-6642-48E0-BF95-5FDB8501B1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="15">
   <si>
     <t>Module</t>
   </si>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,15 +214,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,12 +273,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7FC5D7-851F-4E58-8E91-0A3963C68784}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,21 +608,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -611,7 +643,7 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -628,527 +660,562 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="H5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="C17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>8</v>
       </c>
     </row>
